--- a/biology/Botanique/Eriophorum/Eriophorum.xlsx
+++ b/biology/Botanique/Eriophorum/Eriophorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eriophorum est un genre de plantes vivaces qui appartient à la famille des Cyperaceae.
 Noms vernaculaires : linaigrette, linaigrette jonc, herbe à coton...
@@ -514,15 +526,51 @@
           <t>Espèces de la flore française</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eriophorum angustifolium - Linaigrette à feuilles étroites (Syn. Eriophorum polystachion)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Eriophorum angustifolium - Linaigrette à feuilles étroites (Syn. Eriophorum polystachion)
 Eriophorum gracile - Linaigrette grêle
 Eriophorum latifolium - Linaigrette à feuilles larges
 Eriophorum scheuchzeri - Linaigrette de Scheuchzer (Syn. Eriophorum capitatum)
-Eriophorum vaginatum - Linaigrette vaginée
-Remarque
-La linaigrette des Alpes est actuellement rattachée au genre Trichophorum : Trichophorum alpinum (L.) Pers.
+Eriophorum vaginatum - Linaigrette vaginée</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eriophorum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eriophorum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces de la flore française</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Remarque</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La linaigrette des Alpes est actuellement rattachée au genre Trichophorum : Trichophorum alpinum (L.) Pers.
 			Eriophorum angustifolium
 			Eriophorum angustifolium
 			Eriophorum latifolium
@@ -533,31 +581,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Eriophorum</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Eriophorum</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Eriophorum altaicum Meinsh.
 Eriophorum altaicum var. altaicum Meinsh.
